--- a/data/trans_orig/IP16B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BA4C27-DE3B-4FE8-B594-9A6EA398F04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{658D9FA8-0462-40A0-9668-A00AB8EF62D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51FAFAA4-4564-43C4-99CE-660663218F52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CE2F2E4-6944-4F35-A478-638358200F96}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -115,13 +115,13 @@
     <t>91,81%</t>
   </si>
   <si>
-    <t>66,03%</t>
+    <t>58,08%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>80,84%</t>
+    <t>79,83%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -130,13 +130,13 @@
     <t>8,19%</t>
   </si>
   <si>
-    <t>33,97%</t>
+    <t>41,92%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>19,16%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -160,13 +160,13 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>76,41%</t>
+    <t>71,17%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>87,26%</t>
+    <t>87,6%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -175,13 +175,13 @@
     <t>5,75%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>28,83%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>12,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -205,25 +205,25 @@
     <t>95,01%</t>
   </si>
   <si>
-    <t>72,25%</t>
+    <t>75,02%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>86,33%</t>
+    <t>88,79%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>27,75%</t>
+    <t>24,98%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>13,67%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -235,7 +235,7 @@
     <t>96,71%</t>
   </si>
   <si>
-    <t>77,16%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -244,13 +244,13 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>91,61%</t>
+    <t>92,2%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>22,84%</t>
+    <t>15,41%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -259,10 +259,10 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos recetados por el médico en 2015 (Tasa respuesta: 2,26%)</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos recetados por el médico en 2016 (Tasa respuesta: 2,26%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48476401-A8A6-49CF-9603-A5B27A35EDA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DD992C-0ECB-404F-BEAD-678D1701C9A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094B6A42-2154-4DE6-9420-990582D7E205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD63A89F-5705-4AE3-8CBE-5C86BB4B5697}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2224,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E32AB6-0A4D-4C9A-81C3-A254EBCD1D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996D8146-2799-47FB-B3EF-66D86F066637}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{658D9FA8-0462-40A0-9668-A00AB8EF62D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D15D24-624D-4529-B6A9-0FE3C70CECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CE2F2E4-6944-4F35-A478-638358200F96}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6419A564-A2AB-4E27-A2E2-DFA12DE33F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2007 (Tasa respuesta: 1,85%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,15 +76,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>69,43%</t>
   </si>
   <si>
@@ -97,46 +97,46 @@
     <t>0%</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>30,57%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>21,5%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -154,34 +154,34 @@
     <t>18,74%</t>
   </si>
   <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>87,6%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>12,4%</t>
+    <t>11,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -205,25 +205,25 @@
     <t>95,01%</t>
   </si>
   <si>
-    <t>75,02%</t>
+    <t>73,51%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>88,79%</t>
+    <t>88,37%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>24,98%</t>
+    <t>26,49%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>11,21%</t>
+    <t>11,63%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -232,34 +232,34 @@
     <t>11,15%</t>
   </si>
   <si>
+    <t>94,97%</t>
+  </si>
+  <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>82,9%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>92,2%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>17,1%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2016 (Tasa respuesta: 2,26%)</t>
@@ -277,19 +277,19 @@
     <t>36,25%</t>
   </si>
   <si>
+    <t>88,17%</t>
+  </si>
+  <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
     <t>94,22%</t>
   </si>
   <si>
+    <t>11,83%</t>
+  </si>
+  <si>
     <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DD992C-0ECB-404F-BEAD-678D1701C9A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCC2D9B-97C8-426C-A9BE-B99D17385E91}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -840,10 +840,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1304</v>
+        <v>2023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -855,10 +855,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>2023</v>
+        <v>1304</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -942,25 +942,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1304</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2023</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -995,34 +995,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
+        <v>7190</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7">
         <v>8832</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7190</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -1046,31 +1046,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>642</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -1097,25 +1097,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
+        <v>7832</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7">
         <v>8832</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7">
-        <v>7832</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1150,31 +1150,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1301</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4547</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1301</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1213,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1252,25 +1252,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1301</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>4547</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1301</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1305,34 +1305,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10513</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
         <v>22</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>14682</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10513</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -1356,31 +1356,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>642</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>45</v>
@@ -1407,25 +1407,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11155</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>22</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>14682</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7">
-        <v>11155</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD63A89F-5705-4AE3-8CBE-5C86BB4B5697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770C0919-9467-4D91-88F7-DBA1D8EC12B2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1591,31 +1591,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3834</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1304</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3834</v>
-      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1654,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1693,25 +1693,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3834</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1304</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3834</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1746,34 +1746,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16464</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>18</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>12809</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7">
-        <v>16464</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -1797,34 +1797,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>673</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1848,25 +1848,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16464</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>19</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>13482</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>22</v>
-      </c>
-      <c r="I9" s="7">
-        <v>16464</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1901,31 +1901,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6077</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5679</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6077</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2003,25 +2003,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6077</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5679</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6077</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2056,34 +2056,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26375</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>27</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>19792</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26375</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -2107,31 +2107,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>673</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>71</v>
@@ -2158,25 +2158,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>26375</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>20465</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
-      <c r="I15" s="7">
-        <v>26375</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2224,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996D8146-2799-47FB-B3EF-66D86F066637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F85A48-0598-410D-99F0-C4BDE1614A33}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2342,31 +2342,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1964</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>665</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1964</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2405,7 +2405,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1964</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>665</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1964</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2497,10 +2497,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>11031</v>
+        <v>8737</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -2512,10 +2512,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>8737</v>
+        <v>11031</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -2599,25 +2599,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
+        <v>8737</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7">
         <v>11031</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8737</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2655,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4362</v>
+        <v>4194</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -2670,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4194</v>
+        <v>4362</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -2757,7 +2757,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>4362</v>
+        <v>4194</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2772,7 +2772,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>4194</v>
+        <v>4362</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2810,7 +2810,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>16058</v>
+        <v>14895</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -2825,7 +2825,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>14895</v>
+        <v>16058</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -2912,7 +2912,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="7">
-        <v>16058</v>
+        <v>14895</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2927,7 +2927,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="7">
-        <v>14895</v>
+        <v>16058</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
